--- a/biology/Botanique/Arméria_maritime/Arméria_maritime.xlsx
+++ b/biology/Botanique/Arméria_maritime/Arméria_maritime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arm%C3%A9ria_maritime</t>
+          <t>Arméria_maritime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armeria maritima
-L'Armérie maritime (Armeria maritima), œillet marin, gazon d'Espagne[1] , est une espèce de plantes herbacées vivaces de la famille des Plumbaginaceae. Halophyte strictement littorale, elle est à répartition boréo-subocéanique.
+L'Armérie maritime (Armeria maritima), œillet marin, gazon d'Espagne , est une espèce de plantes herbacées vivaces de la famille des Plumbaginaceae. Halophyte strictement littorale, elle est à répartition boréo-subocéanique.
 En France, elle est rencontrée sur les côtes de la Manche et de l'Atlantique (Vendée, Bretagne), sur les rochers et pelouses de bords de mer, battus par les embruns.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arm%C3%A9ria_maritime</t>
+          <t>Arméria_maritime</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Phytonymie
-L'Armérie maritime est l'une des rares plantes à porter un nom de genre dérivant du celtique armor, « bord de mer », confirmant comme l'épithète spécifique maritima l'habitat maritime de cette espèce[2].
-Synonyme
-Statice maritima Mill.</t>
+          <t>Phytonymie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Armérie maritime est l'une des rares plantes à porter un nom de genre dérivant du celtique armor, « bord de mer », confirmant comme l'épithète spécifique maritima l'habitat maritime de cette espèce.
+</t>
         </is>
       </c>
     </row>
@@ -528,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arm%C3%A9ria_maritime</t>
+          <t>Arméria_maritime</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,16 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractéristiques générales</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante vivace basse en touffe, formant des coussins permanents d'un vert sombre, plus ou moins denses (d'où son nom de gazon) un gazon. Ses feuilles linéaires (10-150 mm x 0-4-2-5 mm), à 1-3 nervures longitudinales parallèles, sont groupées en rosette à la base de la hampe florale[3].
-Appareil reproducteur
-La hampe assez courte (de 1 à 30 cm), le plus souvent légèrement pubescente, porte à son extrémité des fleurs réunies en cyme capituliforme involucrée (de 10-25(-30) mm de diamètre)[4] et à odeur très agréable de miel[5]. Les fleurs, courtement pédonculées, sont bisexuées, actinomorphes, pentamères et tétracycliques, et ont une période de floraison de mai à août. Le périanthe est constitué d'un calice à 5 sépales connés[6], pubescent sur toute sa surface (rarement uniquement sur ses côtes), et d'une corolle à 5 pétales roses[7] (7-11 x 2-5-4-5 mm), soudés entre eux à la base[3]. Les 5 étamines oppositipétales sont soudées par leur filet à la base des pétales. Le pistil possède 5 carpelles soudés, surmontés par 5 styles libres (Armeria). La pollinisation est entomophile[3]. Espèce à dissémination épizoochore, son fruit est une capsule entourée du calice et de la corolle persistants, à déhiscence transversale ou irrégulière[3].
-</t>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Statice maritima Mill.</t>
         </is>
       </c>
     </row>
@@ -562,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arm%C3%A9ria_maritime</t>
+          <t>Arméria_maritime</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,13 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Caractéristiques générales</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat type : voir sous-espèces
-Aire de répartition : atlantique[8]
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace basse en touffe, formant des coussins permanents d'un vert sombre, plus ou moins denses (d'où son nom de gazon) un gazon. Ses feuilles linéaires (10-150 mm x 0-4-2-5 mm), à 1-3 nervures longitudinales parallèles, sont groupées en rosette à la base de la hampe florale.
 </t>
         </is>
       </c>
@@ -594,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arm%C3%A9ria_maritime</t>
+          <t>Arméria_maritime</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +632,83 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Caractéristiques générales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La hampe assez courte (de 1 à 30 cm), le plus souvent légèrement pubescente, porte à son extrémité des fleurs réunies en cyme capituliforme involucrée (de 10-25(-30) mm de diamètre) et à odeur très agréable de miel. Les fleurs, courtement pédonculées, sont bisexuées, actinomorphes, pentamères et tétracycliques, et ont une période de floraison de mai à août. Le périanthe est constitué d'un calice à 5 sépales connés, pubescent sur toute sa surface (rarement uniquement sur ses côtes), et d'une corolle à 5 pétales roses (7-11 x 2-5-4-5 mm), soudés entre eux à la base. Les 5 étamines oppositipétales sont soudées par leur filet à la base des pétales. Le pistil possède 5 carpelles soudés, surmontés par 5 styles libres (Armeria). La pollinisation est entomophile. Espèce à dissémination épizoochore, son fruit est une capsule entourée du calice et de la corolle persistants, à déhiscence transversale ou irrégulière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arméria_maritime</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arm%C3%A9ria_maritime</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habitat type : voir sous-espèces
+Aire de répartition : atlantique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arméria_maritime</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arm%C3%A9ria_maritime</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sous-espèces et variété</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Armeria maritima subsp. maritima, des pelouses aérohalines submaritimes atlantiques.
 Armeria maritima subsp. miscella (Merino) Malag., des prés salés vasicoles de haut-niveau topographique, schorre moyen, méditerranéens.
@@ -622,76 +718,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Arm%C3%A9ria_maritime</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arm%C3%A9ria_maritime</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Statuts de protection, menaces</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante [9].
-Toutefois localement l'espèce est considérée comme vulnérable (VU) en Picardie et Poitou-Charentes ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Haute-Normandie. Elle a disparu (RE) en Aquitaine, Nord-Pas-de-Calais et Haute-Normandie.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Arm%C3%A9ria_maritime</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arm%C3%A9ria_maritime</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Bioindication</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La présence spontanée d'Armérie maritime hors de sa zone naturelle de répartition et hors de ses substrats naturels peut être bioindicatrice d'un gisement naturel de plomb, ou d'une solution ou de séquelles de guerre par le plomb, en particulier s'il s'agit de la variété Halerii[réf. nécessaire].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arm%C3%A9ria_maritime</t>
+          <t>Arméria_maritime</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -706,10 +739,79 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Statuts de protection, menaces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante .
+Toutefois localement l'espèce est considérée comme vulnérable (VU) en Picardie et Poitou-Charentes ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Haute-Normandie. Elle a disparu (RE) en Aquitaine, Nord-Pas-de-Calais et Haute-Normandie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arméria_maritime</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arm%C3%A9ria_maritime</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bioindication</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présence spontanée d'Armérie maritime hors de sa zone naturelle de répartition et hors de ses substrats naturels peut être bioindicatrice d'un gisement naturel de plomb, ou d'une solution ou de séquelles de guerre par le plomb, en particulier s'il s'agit de la variété Halerii[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Arméria_maritime</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arm%C3%A9ria_maritime</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Exemples de localisations de populations d' Armeria maritima en France</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Falaises jurassiques autour du cap Gris-Nez (Nord de France) : Audresselles, Audinghen, Wimereux : floraison de fin mai à juillet. Grâce à la présence de Armeria maritima, la falaise devient rose.
 Le Croisic.
@@ -717,62 +819,69 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Arm%C3%A9ria_maritime</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arm%C3%A9ria_maritime</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Arméria_maritime</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arm%C3%A9ria_maritime</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Calendrier républicain
-Dans le calendrier républicain, le Statice était le nom attribué au 21e jour du mois de floréal[10], généralement chaque 10 mai du calendrier grégorien.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Arm%C3%A9ria_maritime</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arm%C3%A9ria_maritime</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, le Statice était le nom attribué au 21e jour du mois de floréal, généralement chaque 10 mai du calendrier grégorien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Arméria_maritime</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arm%C3%A9ria_maritime</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones de rusticité : 2-7
 Exposition : soleil 
